--- a/api/templates/incomes.xlsx
+++ b/api/templates/incomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\vbs\api\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5521B2C-3261-45A4-AC92-C22A4E6D04BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DB0D73-FC1E-479F-B0F1-93565BB204F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Дата создания</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Описание</t>
+  </si>
+  <si>
+    <t>Безналичный расчёт</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
 </sst>
 </file>
@@ -376,21 +382,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="77.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="5" max="6" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +407,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/api/templates/incomes.xlsx
+++ b/api/templates/incomes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\vbs\api\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DB0D73-FC1E-479F-B0F1-93565BB204F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D9A20-3645-4897-A6CB-290D76E9D9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Дата создания</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Безналичный расчёт</t>
-  </si>
-  <si>
-    <t>Online</t>
   </si>
 </sst>
 </file>
@@ -382,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,10 +390,10 @@
     <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="3" width="29.88671875" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="6" width="28.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,9 +407,6 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/api/templates/incomes.xlsx
+++ b/api/templates/incomes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\vbs\api\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D9A20-3645-4897-A6CB-290D76E9D9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DDA5D7-9A60-4FBD-83A3-D324B23F47A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Безналичный расчёт</t>
+    <t>Тип начисления</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
